--- a/biology/Médecine/The_Resident_(série_télévisée)/The_Resident_(série_télévisée).xlsx
+++ b/biology/Médecine/The_Resident_(série_télévisée)/The_Resident_(série_télévisée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>The_Resident_(série_télévisée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Resident ou Le Résident (au Québec) est une série télévisée médicale américaine en 107 épisodes de 42 minutes créée par Amy Holden Jones, Hayley Schore et Roshan Sethi, basée sur le livre Unaccountable de Dr Marty Makary, et diffusée entre le 21 janvier 2018[1] et le 17 janvier 2023 sur le réseau Fox et en simultané au Canada sur Citytv[2] pour la première saison, puis sur le réseau CTV à partir de la deuxième saison[3].
-Au Québec, la série est diffusée depuis le 29 août 2018 sur Séries+[4].
-En France, elle est diffusée depuis le 5 février 2019 sur Warner TV[5], puis diffusée en clair à partir du 22 avril 2020 sur TF1[6],[7] et sur le service Disney+, via la chaîne virtuelle Star. En Belgique, elle est diffusée depuis le 17 avril 2023 sur AB3. Elle reste inédite dans les autres pays francophones.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Resident ou Le Résident (au Québec) est une série télévisée médicale américaine en 107 épisodes de 42 minutes créée par Amy Holden Jones, Hayley Schore et Roshan Sethi, basée sur le livre Unaccountable de Dr Marty Makary, et diffusée entre le 21 janvier 2018 et le 17 janvier 2023 sur le réseau Fox et en simultané au Canada sur Citytv pour la première saison, puis sur le réseau CTV à partir de la deuxième saison.
+Au Québec, la série est diffusée depuis le 29 août 2018 sur Séries+.
+En France, elle est diffusée depuis le 5 février 2019 sur Warner TV, puis diffusée en clair à partir du 22 avril 2020 sur TF1, et sur le service Disney+, via la chaîne virtuelle Star. En Belgique, elle est diffusée depuis le 17 avril 2023 sur AB3. Elle reste inédite dans les autres pays francophones.
 La série se concentre sur la vie et les devoirs des membres du personnel de l'hôpital Chastain Park Memorial, tout en se plongeant dans les pratiques bureaucratiques de l'institution. Pour sa première saison, la série s'est classée au 41e rang des séries les plus vues aux États-Unis lors de la saison 2017-2018, avec en moyenne 7,02 millions de téléspectateurs[réf. nécessaire].
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>The_Resident_(série_télévisée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Devon Pravesh, un jeune médecin idéaliste, commence son internat à l'hôpital Chastain. Son interne référent, le Dr Conrad Hawkins, est un docteur qui ne suit pas les livres de médecine. Pravesh va devoir réapprendre tout ce qu'il croyait savoir s'il veut réussir son internat. Les vies peuvent être épargnées ou perdues, mais les attentes seront toujours brisées.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>The_Resident_(série_télévisée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acteurs principaux
-Matt Czuchry (VF : Ludovic Baugin [saisons 1-2], Marc Arnaud [redoublage TF1]) : Dr Conrad Hawkins, résident de 3e année
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matt Czuchry (VF : Ludovic Baugin [saisons 1-2], Marc Arnaud [redoublage TF1]) : Dr Conrad Hawkins, résident de 3e année
 Manish Dayal (VF : Nathanel Alimi) : Dr Devon Pravesh, résident de 1re année
 Shaunette Renée Wilson (VF : Laurence Mongeaud) : Dr Mina Okafor, résidente en chirurgie (saisons 1 à 4)
 Emily VanCamp (VF : Cindy Tempez) : Infirmière Nicolette « Nic » Nevin (saisons 1 à 4 - invitée saison 5)
@@ -577,7 +596,43 @@
 			Morris Chestnut interprète le Dr Barrett Cain
 			Jessica Lucas interprète le Dr Billie Sutton
 			Andrew McCarthy interprète Ian Sullivan
-Acteurs récurrents
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The_Resident_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acteurs récurrents</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Introduits lors de la première saison
 Michael Hogan (VF : Julien Sibre) : Dr Albert Nolan, chirurgien traumatologue
 Tasso Feldman (VF : Stéphane Marais) : Dr Irving Feldman, médecin urgentiste
@@ -624,61 +679,171 @@
 Aneesha Joshi (VF : Flora Brunier) : Padma Devi, sœur jumelle de Leela (saisons 5 et 6)
 Kaley Ronayne : Dr Kincaid « Cade » Sullivan (saisons 5 et 6)
 Version française
-Société de doublage : Nice Fellow[8]
-Direction artistique : Stéphane Marais (saisons 1 et 2), Magali Barney (depuis la saison 3)[8]
+Société de doublage : Nice Fellow
+Direction artistique : Stéphane Marais (saisons 1 et 2), Magali Barney (depuis la saison 3)
 Adaptation des dialogues : Alexis Faradi, Joffrey Grosdidier, Caroline Lecoq, Tim Stevens, Sabine Kremer
 Studio d'Enregistrement : Tytan Prod (Warner TV), O'Bahamas (TF1)
- Source et légende : version française (VF) sur RS Doublage[8]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+ Source et légende : version française (VF) sur RS Doublage</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The_Resident_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Développement
-Le 5 août 2016, il a été annoncé que Showtime développait une nouvelle série originale, connue sous le titre de The City, lancée par le producteur exécutif Antoine Fuqua. Il a également été annoncé qu'Amy Holden Jones produirait la série et coécrirait l'épisode pilote avec Hayley Schore et Roshan Sethi[9].
-En janvier 2017, le réseau Fox commande un pilote du projet de série médicale d'Amy Holden Jones[10]. Le 10 mai 2017, lors des Upfronts 2017, la Fox annonce la commande de la série[11]. En novembre 2017, la Fox annonce la date de lancement de la série au 21 janvier 2018[12].
-Le 7 mai 2018, le réseau Fox annonce la reconduction de la série pour une deuxième saison[13] de treize épisodes, qui obtient, en octobre, neuf épisodes supplémentaires pour un total de 22[14].
-Le 25 mars 2019, la série est renouvelée pour une troisième saison[15], une quatrième saison le 19 mai 2020[16], une cinquième saison le 17 mai 2021[17], et une sixième saison le 16 mai 2022[18].
-Le 6 avril 2023, la série est annulée par FOX après 6 saisons[19].
-Attribution des rôles
-En février 2017, Manish Dayal[20] rejoint la série dans le rôle du docteur Devon Pravesh et Bruce Greenwood[20] dans celui du Dr Randolph Bell, le chef de la chirurgie[20]. Ensuite rejoint par Matt Czuchry (Gilmore Girls et The Good Wife) dans le rôle du résident Conrad Hawkins[21].
-En mars 2017, Shaunette Renée Wilson est annoncé dans le rôle de Mina Okafor, une chirurgienne reconnue[22], elle est rejointe par Emily VanCamp (Brothers and Sisters et Revenge) sous les traits de Nicolette, une infirmière[23], et Valerie Cruz dans le rôle de CEO Renata Lopez[24].
-En août 2017, Moran Atias rejoint la distribution[25] dans le rôle de CEO Renata Thorpe, tenu par Valerie Cruz dans le pilote. Puis le mois suivant, la production recaste encore ce rôle à Merrin Dungey, qui devient Claire Thorpe et crée un nouveau personnage régulier pour Atias[26]. Entre-temps, Melina Kanakaredes (Les Experts : Manhattan) est casté dans le rôle de Dr Lane Hunter, spécialisée en cancérologie[27].
-Parmi les rôles récurrents et invités : Violett Beane[28], Jocko Sims[29], Malcolm-Jamal Warner et Catherine Dyer[30].
-En juin 2018, Malcolm-Jamal Warner et Glenn Morshower sont promus à la distribution principale[31], Jane Leeves décroche un rôle principal alors que Moran Atias, Merrin Dungey et Melina Kanakaredes ne reviendront pas[32].
-Pour la troisième saison, la production ajoute Morris Chestnut[33], ainsi que Kearran Giovanni, Geoffrey Cantor, Michael Paul Chan et Erinn Westbrook[34], et David Alan Grier[35].
-Le 15 octobre 2020, Conrad Ricamora rejoint la distribution pour la quatrième saison[36], suivi en décembre par Jessica Lucas[37].
-En mai 2021, Morris Chestnut annonce son départ après deux saisons, mais pourrait revenir au cours de la prochaine saison. Il a obtenu un rôle dans la série Our Kind of People, diffusée sur Fox à l'automne[38]. Fin août, le départ d'Emily VanCamp est annoncé[39]. Nouvellement maman, la distance de son domicile et les protocoles de plateau de tournage contre la Covid-19 ont influencé sa décision[40]. Elle participe à la finale de la cinquième saison[41].
-Tournage
-Le tournage principal de la série a lieu à Atlanta et en Géorgie[42]. L'extérieur et quelques plans intérieurs du High Museum of Art dans le centre-ville d'Atlanta ont été utilisés comme toile de fond pour l'hôpital fictif Chastain Park Memorial. Certains tournages ont également eu lieu à Conyers, en Géorgie, sur un plateau de production précédemment utilisé pour Sleepy Hollow de Fox[43].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 5 août 2016, il a été annoncé que Showtime développait une nouvelle série originale, connue sous le titre de The City, lancée par le producteur exécutif Antoine Fuqua. Il a également été annoncé qu'Amy Holden Jones produirait la série et coécrirait l'épisode pilote avec Hayley Schore et Roshan Sethi.
+En janvier 2017, le réseau Fox commande un pilote du projet de série médicale d'Amy Holden Jones. Le 10 mai 2017, lors des Upfronts 2017, la Fox annonce la commande de la série. En novembre 2017, la Fox annonce la date de lancement de la série au 21 janvier 2018.
+Le 7 mai 2018, le réseau Fox annonce la reconduction de la série pour une deuxième saison de treize épisodes, qui obtient, en octobre, neuf épisodes supplémentaires pour un total de 22.
+Le 25 mars 2019, la série est renouvelée pour une troisième saison, une quatrième saison le 19 mai 2020, une cinquième saison le 17 mai 2021, et une sixième saison le 16 mai 2022.
+Le 6 avril 2023, la série est annulée par FOX après 6 saisons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The_Resident_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En février 2017, Manish Dayal rejoint la série dans le rôle du docteur Devon Pravesh et Bruce Greenwood dans celui du Dr Randolph Bell, le chef de la chirurgie. Ensuite rejoint par Matt Czuchry (Gilmore Girls et The Good Wife) dans le rôle du résident Conrad Hawkins.
+En mars 2017, Shaunette Renée Wilson est annoncé dans le rôle de Mina Okafor, une chirurgienne reconnue, elle est rejointe par Emily VanCamp (Brothers and Sisters et Revenge) sous les traits de Nicolette, une infirmière, et Valerie Cruz dans le rôle de CEO Renata Lopez.
+En août 2017, Moran Atias rejoint la distribution dans le rôle de CEO Renata Thorpe, tenu par Valerie Cruz dans le pilote. Puis le mois suivant, la production recaste encore ce rôle à Merrin Dungey, qui devient Claire Thorpe et crée un nouveau personnage régulier pour Atias. Entre-temps, Melina Kanakaredes (Les Experts : Manhattan) est casté dans le rôle de Dr Lane Hunter, spécialisée en cancérologie.
+Parmi les rôles récurrents et invités : Violett Beane, Jocko Sims, Malcolm-Jamal Warner et Catherine Dyer.
+En juin 2018, Malcolm-Jamal Warner et Glenn Morshower sont promus à la distribution principale, Jane Leeves décroche un rôle principal alors que Moran Atias, Merrin Dungey et Melina Kanakaredes ne reviendront pas.
+Pour la troisième saison, la production ajoute Morris Chestnut, ainsi que Kearran Giovanni, Geoffrey Cantor, Michael Paul Chan et Erinn Westbrook, et David Alan Grier.
+Le 15 octobre 2020, Conrad Ricamora rejoint la distribution pour la quatrième saison, suivi en décembre par Jessica Lucas.
+En mai 2021, Morris Chestnut annonce son départ après deux saisons, mais pourrait revenir au cours de la prochaine saison. Il a obtenu un rôle dans la série Our Kind of People, diffusée sur Fox à l'automne. Fin août, le départ d'Emily VanCamp est annoncé. Nouvellement maman, la distance de son domicile et les protocoles de plateau de tournage contre la Covid-19 ont influencé sa décision. Elle participe à la finale de la cinquième saison.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>The_Resident_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage principal de la série a lieu à Atlanta et en Géorgie. L'extérieur et quelques plans intérieurs du High Museum of Art dans le centre-ville d'Atlanta ont été utilisés comme toile de fond pour l'hôpital fictif Chastain Park Memorial. Certains tournages ont également eu lieu à Conyers, en Géorgie, sur un plateau de production précédemment utilisé pour Sleepy Hollow de Fox.
 Le tournage du premier bloc de production a eu lieu entre le 20 mars et le 5 avril 2017.
 Le tournage de la deuxième saison a commencé en juillet 2018.
-Fiche technique
-Titre original et français : The Resident
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The_Resident_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Titre original et français : The Resident
 Titre québécois : Le Résident
 Création : Amy Holden Jones, Hayley Schore, Roshan Sethi
 Direction artistique : Ken Watkins, Rob Simons, Geoffrey S. Grimsman
@@ -699,38 +864,43 @@
 Format : 1080i (HDTV)
 Genre : Drame, médical
 Durée : 43 à 45 minutes
-Public : Adultes[44]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+Public : Adultes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>The_Resident_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Première saison (2018)
-Elle a été diffusée du 21 janvier au 14 mai 2018 sur la Fox.
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Première saison (2018)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été diffusée du 21 janvier au 14 mai 2018 sur la Fox.
 Bienvenue à Chastain (Pilot)
 La Journée de l'indépendance (Independence Day)
 Frères d'armes (Comrades in Arms)
@@ -745,8 +915,43 @@
 Réveils difficiles et bêtes féroces (Rude Awakenings and the Raptor)
 Cours, docteur, cours (Run, Doctor, Run)
 Cœurs blessés (Total Eclipse of the Heart)
-Deuxième saison (2018-2019)
-Elle a été diffusée du 24 septembre 2018[45] au 6 mai 2019 sur la Fox.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>The_Resident_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2018-2019)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été diffusée du 24 septembre 2018 au 6 mai 2019 sur la Fox.
 Panne de courant (00:42:30)
 Le Prince et le pauvre (The Prince &amp; The Pauper)
 Trois mots (Three Words)
@@ -770,8 +975,43 @@
 Coincés (Stuck as Foretold)
 Dernière chance (Broker and Broker)
 Le Patient fantôme (The Unbefriended)
-Troisième saison (2019-2020)
-Elle est diffusée du 24 septembre 2019[46] au 7 avril 2020 sur la Fox.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>The_Resident_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Troisième saison (2019-2020)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est diffusée du 24 septembre 2019 au 7 avril 2020 sur la Fox.
 Renaissance (From the Ashes)
 La Chair de ma chair (Flesh of My Flesh)
 Saints et pécheurs (Saints &amp; Sinners)
@@ -792,8 +1032,43 @@
 Serment d'hypocrite (So Long, Dawn Long)
 Le Souffle court (Support System)
 Jouer avec le feu (Burn it All Down)
-Quatrième saison (2021)
-Cette saison de quatorze épisodes est diffusée du 12 janvier[47] au 18 mai 2021 sur la Fox. Après un retour sur les premiers jours de la pandémie de Covid-19 dans le premier épisode[48], la saison se situe dans un monde où la pandémie est terminée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>The_Resident_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Quatrième saison (2021)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette saison de quatorze épisodes est diffusée du 12 janvier au 18 mai 2021 sur la Fox. Après un retour sur les premiers jours de la pandémie de Covid-19 dans le premier épisode, la saison se situe dans un monde où la pandémie est terminée.
 Un mariage, un enterrement (A Wedding, a Funeral)
 La Justice de Mina (Mina's Kangaroo Court)
 Le Patient accidentel (The Accidental Patient)
@@ -808,8 +1083,43 @@
 Espoirs incertains (Hope in the Unseen)
 Une histoire pour enfants (Finding Family)
 Passé, présent, futur (Past, Present, Future)
-Cinquième saison (2021-2022)
-Cette saison de 23 épisodes[49] est diffusée du 21 septembre 2021[50] jusqu'au 17 mai 2022 sur la Fox.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>The_Resident_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Cinquième saison (2021-2022)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette saison de 23 épisodes est diffusée du 21 septembre 2021 jusqu'au 17 mai 2022 sur la Fox.
 Super papa (Da Da)
 Un ennemi insidieux (No Good Deed)
 Le don de la vie (The Long and Winding Road)
@@ -833,8 +1143,43 @@
 Le risque existe (Risk)
 La preuve est faite (The Proof Is in The Pudding)
 Sous la lumière des néons (Neon Moon)
-Sixième saison (2022-2023)
-Cette saison de treize épisodes[51] est diffusée du 20 septembre 2022[52] au 17 janvier 2023[53].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>The_Resident_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sixième saison (2022-2023)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette saison de treize épisodes est diffusée du 20 septembre 2022 au 17 janvier 2023.
 Deux coeurs (Two Hearts)
 Le bon état d'esprit (Peek and Shriek)
 Une seule balle (One Bullet)
@@ -852,120 +1197,98 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Univers de la série</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Personnages</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>The_Resident_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Audiences</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aux États-Unis
-En France
-Le lancement de la nouvelle série hospitalière américaine a attiré 4,6 millions de curieux, soit 17,2 % de part d’audience. Un coup d'envoi réussi puisque TF1 a décroché la tête des audiences pour le lancement qui s'accompagne également de belles performances à J+7, selon les chiffres publiés par Médiamétrie.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lancement de la nouvelle série hospitalière américaine a attiré 4,6 millions de curieux, soit 17,2 % de part d’audience. Un coup d'envoi réussi puisque TF1 a décroché la tête des audiences pour le lancement qui s'accompagne également de belles performances à J+7, selon les chiffres publiés par Médiamétrie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>The_Resident_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Bande son</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>The_Resident_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Accueil critique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site Web de l'agrégateur d'avis, Rotten Tomatoes, a fait état d'une note d'approbation de 59% sur la base de 22 avis, avec une note moyenne de 6,11 / 10.
 Sur Metacritic, qui utilise une note normalisée aux avis, a attribué une note moyenne de 54 sur 100, sur la base de 12 critiques. La première saison a reçu des critiques généralement mitigées.
@@ -976,65 +1299,40 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>The_Resident_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Récompenses et nominations
- Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Resident_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Produits dérivés</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sorties DVD et disque Blu-ray</t>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Récompenses et nominations</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
+</t>
         </is>
       </c>
     </row>
